--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H2">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I2">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J2">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>10.35183587119645</v>
+        <v>10.71616153307267</v>
       </c>
       <c r="R2">
-        <v>93.166522840768</v>
+        <v>96.445453797654</v>
       </c>
       <c r="S2">
-        <v>0.009556089457538034</v>
+        <v>0.009502918886367473</v>
       </c>
       <c r="T2">
-        <v>0.009936788470881829</v>
+        <v>0.009810150540585252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H3">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I3">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J3">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>68.17342581455111</v>
+        <v>54.24817697502166</v>
       </c>
       <c r="R3">
-        <v>613.56083233096</v>
+        <v>488.2335927751949</v>
       </c>
       <c r="S3">
-        <v>0.06293292936795637</v>
+        <v>0.04810640675170222</v>
       </c>
       <c r="T3">
-        <v>0.06544007459966168</v>
+        <v>0.04966169845749603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H4">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I4">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J4">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>57.25279072783644</v>
+        <v>63.22651558469499</v>
       </c>
       <c r="R4">
-        <v>515.275116550528</v>
+        <v>569.0386402622549</v>
       </c>
       <c r="S4">
-        <v>0.05285176433401806</v>
+        <v>0.05606825235087012</v>
       </c>
       <c r="T4">
-        <v>0.05495729239807026</v>
+        <v>0.05788095244068878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H5">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I5">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J5">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>25.28647631267467</v>
+        <v>19.3132370990095</v>
       </c>
       <c r="R5">
-        <v>151.718857876048</v>
+        <v>115.879422594057</v>
       </c>
       <c r="S5">
-        <v>0.02334270294819766</v>
+        <v>0.01712666657913338</v>
       </c>
       <c r="T5">
-        <v>0.01618175876687731</v>
+        <v>0.0117869172204719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H6">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I6">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J6">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>58.93986449597156</v>
+        <v>73.28801463592666</v>
       </c>
       <c r="R6">
-        <v>530.458780463744</v>
+        <v>659.59213172334</v>
       </c>
       <c r="S6">
-        <v>0.05440915261280861</v>
+        <v>0.06499062712695307</v>
       </c>
       <c r="T6">
-        <v>0.05657672448502766</v>
+        <v>0.0670917897402117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.495231</v>
       </c>
       <c r="I7">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J7">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>12.447932771196</v>
+        <v>16.193811446514</v>
       </c>
       <c r="R7">
-        <v>112.031394940764</v>
+        <v>145.744303018626</v>
       </c>
       <c r="S7">
-        <v>0.01149105922882256</v>
+        <v>0.01436041031692315</v>
       </c>
       <c r="T7">
-        <v>0.01194884428097452</v>
+        <v>0.01482468583791529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.495231</v>
       </c>
       <c r="I8">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J8">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>81.977557592745</v>
@@ -948,10 +948,10 @@
         <v>737.7980183347049</v>
       </c>
       <c r="S8">
-        <v>0.07567593648257923</v>
+        <v>0.07269637340778326</v>
       </c>
       <c r="T8">
-        <v>0.07869074232766893</v>
+        <v>0.07504666465248146</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>3.495231</v>
       </c>
       <c r="I9">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J9">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>68.84565199941599</v>
+        <v>95.545244315205</v>
       </c>
       <c r="R9">
-        <v>619.610867994744</v>
+        <v>859.9071988368451</v>
       </c>
       <c r="S9">
-        <v>0.06355348147467421</v>
+        <v>0.08472797875464791</v>
       </c>
       <c r="T9">
-        <v>0.06608534848988792</v>
+        <v>0.08746725469529208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.495231</v>
       </c>
       <c r="I10">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J10">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>30.4066216927215</v>
+        <v>29.1853495337805</v>
       </c>
       <c r="R10">
-        <v>182.439730156329</v>
+        <v>175.112097202683</v>
       </c>
       <c r="S10">
-        <v>0.02806926236201809</v>
+        <v>0.02588109636401448</v>
       </c>
       <c r="T10">
-        <v>0.01945833065323894</v>
+        <v>0.01781189229136796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.495231</v>
       </c>
       <c r="I11">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J11">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>70.874333781768</v>
+        <v>110.74975742394</v>
       </c>
       <c r="R11">
-        <v>637.8690040359121</v>
+        <v>996.7478168154602</v>
       </c>
       <c r="S11">
-        <v>0.06542621833355111</v>
+        <v>0.09821109529158113</v>
       </c>
       <c r="T11">
-        <v>0.06803269212987489</v>
+        <v>0.1013862836342132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H12">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I12">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J12">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>14.53938559922044</v>
+        <v>16.74245580331712</v>
       </c>
       <c r="R12">
-        <v>130.854470392984</v>
+        <v>150.6821022298541</v>
       </c>
       <c r="S12">
-        <v>0.01342174191829921</v>
+        <v>0.01484693926705818</v>
       </c>
       <c r="T12">
-        <v>0.01395644221891444</v>
+        <v>0.01532694438607828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H13">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I13">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J13">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>95.75110520208111</v>
+        <v>84.75494724596612</v>
       </c>
       <c r="R13">
-        <v>861.7599468187299</v>
+        <v>762.7945252136951</v>
       </c>
       <c r="S13">
-        <v>0.08839071043573914</v>
+        <v>0.07515931767275544</v>
       </c>
       <c r="T13">
-        <v>0.09191205213112261</v>
+        <v>0.07758923649818138</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H14">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I14">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J14">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>80.41282835054042</v>
+        <v>98.78230553986168</v>
       </c>
       <c r="R14">
-        <v>723.7154551548639</v>
+        <v>889.0407498587551</v>
       </c>
       <c r="S14">
-        <v>0.07423148809667139</v>
+        <v>0.08759855234139168</v>
       </c>
       <c r="T14">
-        <v>0.07718874947466664</v>
+        <v>0.09043063461682148</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H15">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I15">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J15">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>35.51542297714566</v>
+        <v>30.17414561652617</v>
       </c>
       <c r="R15">
-        <v>213.092537862874</v>
+        <v>181.044873699157</v>
       </c>
       <c r="S15">
-        <v>0.03278534970171236</v>
+        <v>0.02675794475235674</v>
       </c>
       <c r="T15">
-        <v>0.02272764302995105</v>
+        <v>0.01841535702985283</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H16">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I16">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J16">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>82.78236128696355</v>
+        <v>114.5019456983711</v>
       </c>
       <c r="R16">
-        <v>745.041251582672</v>
+        <v>1030.51751128534</v>
       </c>
       <c r="S16">
-        <v>0.07641887485538602</v>
+        <v>0.101538475222189</v>
       </c>
       <c r="T16">
-        <v>0.07946327815315338</v>
+        <v>0.104821238558622</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H17">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I17">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J17">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>13.63185059840933</v>
+        <v>0.3653513293776667</v>
       </c>
       <c r="R17">
-        <v>122.686655385684</v>
+        <v>2.192107976266</v>
       </c>
       <c r="S17">
-        <v>0.01258396920227996</v>
+        <v>0.0003239876552240611</v>
       </c>
       <c r="T17">
-        <v>0.01308529400470504</v>
+        <v>0.0002229748360509062</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H18">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I18">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J18">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>89.77440978092834</v>
+        <v>1.849509594734167</v>
       </c>
       <c r="R18">
-        <v>807.969688028355</v>
+        <v>11.097057568405</v>
       </c>
       <c r="S18">
-        <v>0.08287344404785998</v>
+        <v>0.001640115222607851</v>
       </c>
       <c r="T18">
-        <v>0.08617498685170383</v>
+        <v>0.001128760361602882</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H19">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I19">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J19">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>75.39353398322933</v>
+        <v>2.1556124783575</v>
       </c>
       <c r="R19">
-        <v>678.541805849064</v>
+        <v>12.933674870145</v>
       </c>
       <c r="S19">
-        <v>0.06959802727053892</v>
+        <v>0.001911562313525456</v>
       </c>
       <c r="T19">
-        <v>0.07237069912865642</v>
+        <v>0.001315575722058485</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H20">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I20">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J20">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>33.2985831251165</v>
+        <v>0.65845562582575</v>
       </c>
       <c r="R20">
-        <v>199.791498750699</v>
+        <v>2.633822503303</v>
       </c>
       <c r="S20">
-        <v>0.03073891849833803</v>
+        <v>0.0005839078090772565</v>
       </c>
       <c r="T20">
-        <v>0.02130900457409173</v>
+        <v>0.0002679047506872951</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0262855</v>
+      </c>
+      <c r="H21">
+        <v>0.052571</v>
+      </c>
+      <c r="I21">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J21">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>95.05788666666668</v>
+      </c>
+      <c r="N21">
+        <v>285.17366</v>
+      </c>
+      <c r="O21">
+        <v>0.3319322235782747</v>
+      </c>
+      <c r="P21">
+        <v>0.3419012078510756</v>
+      </c>
+      <c r="Q21">
+        <v>2.498644079976667</v>
+      </c>
+      <c r="R21">
+        <v>14.99186447986</v>
+      </c>
+      <c r="S21">
+        <v>0.002215757194835068</v>
+      </c>
+      <c r="T21">
+        <v>0.001524928772070923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.312438</v>
+      </c>
+      <c r="I22">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J22">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.89934866666667</v>
+      </c>
+      <c r="N22">
+        <v>41.69804600000001</v>
+      </c>
+      <c r="O22">
+        <v>0.04853507553134179</v>
+      </c>
+      <c r="P22">
+        <v>0.04999273878390351</v>
+      </c>
+      <c r="Q22">
+        <v>10.71379401068311</v>
+      </c>
+      <c r="R22">
+        <v>96.42414609614802</v>
+      </c>
+      <c r="S22">
+        <v>0.009500819405768926</v>
+      </c>
+      <c r="T22">
+        <v>0.009807983183273772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.312438</v>
+      </c>
+      <c r="I23">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J23">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N23">
+        <v>211.087055</v>
+      </c>
+      <c r="O23">
+        <v>0.245697991654417</v>
+      </c>
+      <c r="P23">
+        <v>0.253077086664408</v>
+      </c>
+      <c r="Q23">
+        <v>54.23619192112112</v>
+      </c>
+      <c r="R23">
+        <v>488.12572729009</v>
+      </c>
+      <c r="S23">
+        <v>0.04809577859956825</v>
+      </c>
+      <c r="T23">
+        <v>0.04965072669464621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.312438</v>
+      </c>
+      <c r="I24">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J24">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>82.007665</v>
+      </c>
+      <c r="N24">
+        <v>246.022995</v>
+      </c>
+      <c r="O24">
+        <v>0.2863622109480123</v>
+      </c>
+      <c r="P24">
+        <v>0.2949625822722868</v>
+      </c>
+      <c r="Q24">
+        <v>63.21254694575667</v>
+      </c>
+      <c r="R24">
+        <v>568.9129225118101</v>
+      </c>
+      <c r="S24">
+        <v>0.05605586518757717</v>
+      </c>
+      <c r="T24">
+        <v>0.05786816479742594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.275887</v>
-      </c>
-      <c r="H21">
-        <v>3.827661</v>
-      </c>
-      <c r="I21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="J21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>60.83231733333334</v>
-      </c>
-      <c r="N21">
-        <v>182.496952</v>
-      </c>
-      <c r="O21">
-        <v>0.2679031251727568</v>
-      </c>
-      <c r="P21">
-        <v>0.2785759485989269</v>
-      </c>
-      <c r="Q21">
-        <v>77.61516286547467</v>
-      </c>
-      <c r="R21">
-        <v>698.536465789272</v>
-      </c>
-      <c r="S21">
-        <v>0.07164887937101112</v>
-      </c>
-      <c r="T21">
-        <v>0.07450325383087099</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.312438</v>
+      </c>
+      <c r="I25">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J25">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.0501465</v>
+      </c>
+      <c r="N25">
+        <v>50.100293</v>
+      </c>
+      <c r="O25">
+        <v>0.0874724982879541</v>
+      </c>
+      <c r="P25">
+        <v>0.06006638442832619</v>
+      </c>
+      <c r="Q25">
+        <v>19.30897022405567</v>
+      </c>
+      <c r="R25">
+        <v>115.853821344334</v>
+      </c>
+      <c r="S25">
+        <v>0.01712288278337224</v>
+      </c>
+      <c r="T25">
+        <v>0.01178431313594619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.312438</v>
+      </c>
+      <c r="I26">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J26">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>95.05788666666668</v>
+      </c>
+      <c r="N26">
+        <v>285.17366</v>
+      </c>
+      <c r="O26">
+        <v>0.3319322235782747</v>
+      </c>
+      <c r="P26">
+        <v>0.3419012078510756</v>
+      </c>
+      <c r="Q26">
+        <v>73.27182310923112</v>
+      </c>
+      <c r="R26">
+        <v>659.4464079830801</v>
+      </c>
+      <c r="S26">
+        <v>0.06497626874271638</v>
+      </c>
+      <c r="T26">
+        <v>0.06707696714595769</v>
       </c>
     </row>
   </sheetData>
